--- a/statsTier.xlsx
+++ b/statsTier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\destiny-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC913D0-22A5-4088-AE09-5AF597D4B336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BB0300-34A0-4E29-8932-DBDF6DF27974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{DFA9497D-A002-446E-A47F-1B2F2B07A242}"/>
+    <workbookView xWindow="7320" yWindow="2595" windowWidth="21600" windowHeight="11505" xr2:uid="{DFA9497D-A002-446E-A47F-1B2F2B07A242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Tier</t>
   </si>
@@ -518,17 +518,17 @@
   <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -756,7 +756,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0.15833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,15 +832,15 @@
         <v>2.5694444444444447E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5">
-        <v>1.9444444444444445E-2</v>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="5">
         <v>2.2222222222222223E-2</v>
@@ -873,15 +873,15 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5">
-        <v>3.6111111111111115E-2</v>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="5">
         <v>3.1944444444444449E-2</v>
@@ -914,7 +914,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
